--- a/20 開発資料/02.画面、帳票設計/帳票一覧.xlsx
+++ b/20 開発資料/02.画面、帳票設計/帳票一覧.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t>章番</t>
     <rPh sb="0" eb="1">
@@ -743,6 +743,86 @@
       <t>リユウ</t>
     </rPh>
     <rPh sb="8" eb="11">
+      <t>ホウコクショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DrSoufujo</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チケット類送付状</t>
+    <rPh sb="4" eb="5">
+      <t>ルイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ソウフジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Dr宛のチケット送付状</t>
+    <rPh sb="2" eb="3">
+      <t>アテ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ソウフジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TaxiKakuninReport</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タクチケ手配確認票</t>
+    <rPh sb="4" eb="6">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Dr毎の手配済タクチケ内容の確認票</t>
+    <rPh sb="2" eb="3">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ズミ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MishuHoukoku</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>講演会毎の報告書</t>
+    <rPh sb="0" eb="3">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="5" eb="8">
       <t>ホウコクショ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -976,6 +1056,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -991,62 +1077,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1063,6 +1096,66 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
@@ -1093,33 +1186,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1423,10 +1503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ23"/>
+  <dimension ref="A1:AZ25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection sqref="A1:H3"/>
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -1435,200 +1515,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="30" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="31" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="30" t="s">
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="34" t="s">
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="38"/>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="38"/>
-      <c r="AV1" s="38"/>
-      <c r="AW1" s="38"/>
-      <c r="AX1" s="38"/>
-      <c r="AY1" s="38"/>
-      <c r="AZ1" s="39"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="40"/>
+      <c r="AO1" s="40"/>
+      <c r="AP1" s="40"/>
+      <c r="AQ1" s="40"/>
+      <c r="AR1" s="40"/>
+      <c r="AS1" s="40"/>
+      <c r="AT1" s="40"/>
+      <c r="AU1" s="40"/>
+      <c r="AV1" s="40"/>
+      <c r="AW1" s="40"/>
+      <c r="AX1" s="40"/>
+      <c r="AY1" s="40"/>
+      <c r="AZ1" s="41"/>
     </row>
     <row r="2" spans="1:52">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="40" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="31" t="s">
+      <c r="J2" s="43"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="40" t="s">
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="34" t="s">
+      <c r="Q2" s="43"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="30" t="s">
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="43">
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="21">
         <v>41605</v>
       </c>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="30" t="s">
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" s="30"/>
-      <c r="AT2" s="30"/>
-      <c r="AU2" s="46" t="s">
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AV2" s="46"/>
-      <c r="AW2" s="46"/>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="46"/>
+      <c r="AV2" s="13"/>
+      <c r="AW2" s="13"/>
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="13"/>
+      <c r="AZ2" s="13"/>
     </row>
     <row r="3" spans="1:52">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="30" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="30" t="s">
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="30" t="s">
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="21">
+        <v>41635</v>
+      </c>
+      <c r="AN3" s="22"/>
+      <c r="AO3" s="22"/>
+      <c r="AP3" s="22"/>
+      <c r="AQ3" s="23"/>
+      <c r="AR3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AS3" s="30"/>
-      <c r="AT3" s="30"/>
-      <c r="AU3" s="46"/>
-      <c r="AV3" s="46"/>
-      <c r="AW3" s="46"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="46"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV3" s="13"/>
+      <c r="AW3" s="13"/>
+      <c r="AX3" s="13"/>
+      <c r="AY3" s="13"/>
+      <c r="AZ3" s="13"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" s="2" t="s">
@@ -1695,1140 +1779,1261 @@
       <c r="AZ5" s="3"/>
     </row>
     <row r="6" spans="1:52">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
-      <c r="AP6" s="9"/>
-      <c r="AQ6" s="9"/>
-      <c r="AR6" s="9"/>
-      <c r="AS6" s="9"/>
-      <c r="AT6" s="9"/>
-      <c r="AU6" s="9"/>
-      <c r="AV6" s="9"/>
-      <c r="AW6" s="9"/>
-      <c r="AX6" s="9"/>
-      <c r="AY6" s="9"/>
-      <c r="AZ6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="11"/>
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11"/>
+      <c r="AV6" s="11"/>
+      <c r="AW6" s="11"/>
+      <c r="AX6" s="11"/>
+      <c r="AY6" s="11"/>
+      <c r="AZ6" s="12"/>
     </row>
     <row r="7" spans="1:52">
-      <c r="A7" s="11">
+      <c r="A7" s="24">
         <v>1</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="20"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="7"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="9"/>
       <c r="W7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="16"/>
-      <c r="AG7" s="16"/>
-      <c r="AH7" s="16"/>
-      <c r="AI7" s="16"/>
-      <c r="AJ7" s="16"/>
-      <c r="AK7" s="16"/>
-      <c r="AL7" s="16"/>
-      <c r="AM7" s="17"/>
-      <c r="AN7" s="18"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="6"/>
-      <c r="AV7" s="6"/>
-      <c r="AW7" s="6"/>
-      <c r="AX7" s="6"/>
-      <c r="AY7" s="6"/>
-      <c r="AZ7" s="7"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="26"/>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="8"/>
+      <c r="AT7" s="8"/>
+      <c r="AU7" s="8"/>
+      <c r="AV7" s="8"/>
+      <c r="AW7" s="8"/>
+      <c r="AX7" s="8"/>
+      <c r="AY7" s="8"/>
+      <c r="AZ7" s="9"/>
     </row>
     <row r="8" spans="1:52">
-      <c r="A8" s="11">
+      <c r="A8" s="24">
         <v>2</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="7"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="9"/>
       <c r="W8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="16"/>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="16"/>
-      <c r="AG8" s="16"/>
-      <c r="AH8" s="16"/>
-      <c r="AI8" s="16"/>
-      <c r="AJ8" s="16"/>
-      <c r="AK8" s="16"/>
-      <c r="AL8" s="16"/>
-      <c r="AM8" s="17"/>
-      <c r="AN8" s="18"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="6"/>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="6"/>
-      <c r="AT8" s="6"/>
-      <c r="AU8" s="6"/>
-      <c r="AV8" s="6"/>
-      <c r="AW8" s="6"/>
-      <c r="AX8" s="6"/>
-      <c r="AY8" s="6"/>
-      <c r="AZ8" s="7"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="26"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="8"/>
+      <c r="AV8" s="8"/>
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="8"/>
+      <c r="AY8" s="8"/>
+      <c r="AZ8" s="9"/>
     </row>
     <row r="9" spans="1:52">
-      <c r="A9" s="11">
+      <c r="A9" s="24">
         <v>3</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="7"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="9"/>
       <c r="W9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="16"/>
-      <c r="AK9" s="16"/>
-      <c r="AL9" s="16"/>
-      <c r="AM9" s="17"/>
-      <c r="AN9" s="18"/>
-      <c r="AO9" s="6"/>
-      <c r="AP9" s="6"/>
-      <c r="AQ9" s="6"/>
-      <c r="AR9" s="6"/>
-      <c r="AS9" s="6"/>
-      <c r="AT9" s="6"/>
-      <c r="AU9" s="6"/>
-      <c r="AV9" s="6"/>
-      <c r="AW9" s="6"/>
-      <c r="AX9" s="6"/>
-      <c r="AY9" s="6"/>
-      <c r="AZ9" s="7"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="26"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="8"/>
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="8"/>
+      <c r="AW9" s="8"/>
+      <c r="AX9" s="8"/>
+      <c r="AY9" s="8"/>
+      <c r="AZ9" s="9"/>
     </row>
     <row r="10" spans="1:52">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="9"/>
-      <c r="AK10" s="9"/>
-      <c r="AL10" s="9"/>
-      <c r="AM10" s="9"/>
-      <c r="AN10" s="9"/>
-      <c r="AO10" s="9"/>
-      <c r="AP10" s="9"/>
-      <c r="AQ10" s="9"/>
-      <c r="AR10" s="9"/>
-      <c r="AS10" s="9"/>
-      <c r="AT10" s="9"/>
-      <c r="AU10" s="9"/>
-      <c r="AV10" s="9"/>
-      <c r="AW10" s="9"/>
-      <c r="AX10" s="9"/>
-      <c r="AY10" s="9"/>
-      <c r="AZ10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="11"/>
+      <c r="AS10" s="11"/>
+      <c r="AT10" s="11"/>
+      <c r="AU10" s="11"/>
+      <c r="AV10" s="11"/>
+      <c r="AW10" s="11"/>
+      <c r="AX10" s="11"/>
+      <c r="AY10" s="11"/>
+      <c r="AZ10" s="12"/>
     </row>
     <row r="11" spans="1:52">
-      <c r="A11" s="11">
+      <c r="A11" s="24">
         <v>4</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="47"/>
       <c r="J11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="17"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="7"/>
       <c r="W11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="16"/>
-      <c r="AI11" s="16"/>
-      <c r="AJ11" s="16"/>
-      <c r="AK11" s="16"/>
-      <c r="AL11" s="16"/>
-      <c r="AM11" s="17"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="7"/>
       <c r="AN11" s="5"/>
-      <c r="AO11" s="6"/>
-      <c r="AP11" s="6"/>
-      <c r="AQ11" s="6"/>
-      <c r="AR11" s="6"/>
-      <c r="AS11" s="6"/>
-      <c r="AT11" s="6"/>
-      <c r="AU11" s="6"/>
-      <c r="AV11" s="6"/>
-      <c r="AW11" s="6"/>
-      <c r="AX11" s="6"/>
-      <c r="AY11" s="6"/>
-      <c r="AZ11" s="7"/>
+      <c r="AO11" s="8"/>
+      <c r="AP11" s="8"/>
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="8"/>
+      <c r="AS11" s="8"/>
+      <c r="AT11" s="8"/>
+      <c r="AU11" s="8"/>
+      <c r="AV11" s="8"/>
+      <c r="AW11" s="8"/>
+      <c r="AX11" s="8"/>
+      <c r="AY11" s="8"/>
+      <c r="AZ11" s="9"/>
     </row>
     <row r="12" spans="1:52">
-      <c r="A12" s="11">
+      <c r="A12" s="24">
         <v>5</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="20"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="47"/>
       <c r="J12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="17"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="7"/>
       <c r="W12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
-      <c r="AG12" s="16"/>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="16"/>
-      <c r="AJ12" s="16"/>
-      <c r="AK12" s="16"/>
-      <c r="AL12" s="16"/>
-      <c r="AM12" s="17"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="7"/>
       <c r="AN12" s="5"/>
-      <c r="AO12" s="6"/>
-      <c r="AP12" s="6"/>
-      <c r="AQ12" s="6"/>
-      <c r="AR12" s="6"/>
-      <c r="AS12" s="6"/>
-      <c r="AT12" s="6"/>
-      <c r="AU12" s="6"/>
-      <c r="AV12" s="6"/>
-      <c r="AW12" s="6"/>
-      <c r="AX12" s="6"/>
-      <c r="AY12" s="6"/>
-      <c r="AZ12" s="7"/>
+      <c r="AO12" s="8"/>
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="8"/>
+      <c r="AT12" s="8"/>
+      <c r="AU12" s="8"/>
+      <c r="AV12" s="8"/>
+      <c r="AW12" s="8"/>
+      <c r="AX12" s="8"/>
+      <c r="AY12" s="8"/>
+      <c r="AZ12" s="9"/>
     </row>
     <row r="13" spans="1:52">
-      <c r="A13" s="11">
+      <c r="A13" s="24">
         <v>6</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="17"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="7"/>
       <c r="W13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="16"/>
-      <c r="AL13" s="16"/>
-      <c r="AM13" s="17"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="7"/>
       <c r="AN13" s="5"/>
-      <c r="AO13" s="6"/>
-      <c r="AP13" s="6"/>
-      <c r="AQ13" s="6"/>
-      <c r="AR13" s="6"/>
-      <c r="AS13" s="6"/>
-      <c r="AT13" s="6"/>
-      <c r="AU13" s="6"/>
-      <c r="AV13" s="6"/>
-      <c r="AW13" s="6"/>
-      <c r="AX13" s="6"/>
-      <c r="AY13" s="6"/>
-      <c r="AZ13" s="7"/>
+      <c r="AO13" s="8"/>
+      <c r="AP13" s="8"/>
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="8"/>
+      <c r="AS13" s="8"/>
+      <c r="AT13" s="8"/>
+      <c r="AU13" s="8"/>
+      <c r="AV13" s="8"/>
+      <c r="AW13" s="8"/>
+      <c r="AX13" s="8"/>
+      <c r="AY13" s="8"/>
+      <c r="AZ13" s="9"/>
     </row>
     <row r="14" spans="1:52">
-      <c r="A14" s="11">
+      <c r="A14" s="24">
         <v>7</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="20"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="47"/>
       <c r="J14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="13" t="s">
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="19"/>
-      <c r="AG14" s="19"/>
-      <c r="AH14" s="19"/>
-      <c r="AI14" s="19"/>
-      <c r="AJ14" s="19"/>
-      <c r="AK14" s="19"/>
-      <c r="AL14" s="19"/>
-      <c r="AM14" s="20"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="46"/>
+      <c r="AF14" s="46"/>
+      <c r="AG14" s="46"/>
+      <c r="AH14" s="46"/>
+      <c r="AI14" s="46"/>
+      <c r="AJ14" s="46"/>
+      <c r="AK14" s="46"/>
+      <c r="AL14" s="46"/>
+      <c r="AM14" s="47"/>
       <c r="AN14" s="5"/>
-      <c r="AO14" s="6"/>
-      <c r="AP14" s="6"/>
-      <c r="AQ14" s="6"/>
-      <c r="AR14" s="6"/>
-      <c r="AS14" s="6"/>
-      <c r="AT14" s="6"/>
-      <c r="AU14" s="6"/>
-      <c r="AV14" s="6"/>
-      <c r="AW14" s="6"/>
-      <c r="AX14" s="6"/>
-      <c r="AY14" s="6"/>
-      <c r="AZ14" s="7"/>
+      <c r="AO14" s="8"/>
+      <c r="AP14" s="8"/>
+      <c r="AQ14" s="8"/>
+      <c r="AR14" s="8"/>
+      <c r="AS14" s="8"/>
+      <c r="AT14" s="8"/>
+      <c r="AU14" s="8"/>
+      <c r="AV14" s="8"/>
+      <c r="AW14" s="8"/>
+      <c r="AX14" s="8"/>
+      <c r="AY14" s="8"/>
+      <c r="AZ14" s="9"/>
     </row>
     <row r="15" spans="1:52">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="9"/>
-      <c r="AK15" s="9"/>
-      <c r="AL15" s="9"/>
-      <c r="AM15" s="9"/>
-      <c r="AN15" s="9"/>
-      <c r="AO15" s="9"/>
-      <c r="AP15" s="9"/>
-      <c r="AQ15" s="9"/>
-      <c r="AR15" s="9"/>
-      <c r="AS15" s="9"/>
-      <c r="AT15" s="9"/>
-      <c r="AU15" s="9"/>
-      <c r="AV15" s="9"/>
-      <c r="AW15" s="9"/>
-      <c r="AX15" s="9"/>
-      <c r="AY15" s="9"/>
-      <c r="AZ15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="11"/>
+      <c r="AP15" s="11"/>
+      <c r="AQ15" s="11"/>
+      <c r="AR15" s="11"/>
+      <c r="AS15" s="11"/>
+      <c r="AT15" s="11"/>
+      <c r="AU15" s="11"/>
+      <c r="AV15" s="11"/>
+      <c r="AW15" s="11"/>
+      <c r="AX15" s="11"/>
+      <c r="AY15" s="11"/>
+      <c r="AZ15" s="12"/>
     </row>
     <row r="16" spans="1:52">
-      <c r="A16" s="11">
+      <c r="A16" s="24">
         <v>8</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
       <c r="J16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="17"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="7"/>
       <c r="W16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
-      <c r="AH16" s="6"/>
-      <c r="AI16" s="6"/>
-      <c r="AJ16" s="6"/>
-      <c r="AK16" s="6"/>
-      <c r="AL16" s="6"/>
-      <c r="AM16" s="7"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="9"/>
       <c r="AN16" s="5"/>
-      <c r="AO16" s="6"/>
-      <c r="AP16" s="6"/>
-      <c r="AQ16" s="6"/>
-      <c r="AR16" s="6"/>
-      <c r="AS16" s="6"/>
-      <c r="AT16" s="6"/>
-      <c r="AU16" s="6"/>
-      <c r="AV16" s="6"/>
-      <c r="AW16" s="6"/>
-      <c r="AX16" s="6"/>
-      <c r="AY16" s="6"/>
-      <c r="AZ16" s="7"/>
+      <c r="AO16" s="8"/>
+      <c r="AP16" s="8"/>
+      <c r="AQ16" s="8"/>
+      <c r="AR16" s="8"/>
+      <c r="AS16" s="8"/>
+      <c r="AT16" s="8"/>
+      <c r="AU16" s="8"/>
+      <c r="AV16" s="8"/>
+      <c r="AW16" s="8"/>
+      <c r="AX16" s="8"/>
+      <c r="AY16" s="8"/>
+      <c r="AZ16" s="9"/>
     </row>
     <row r="17" spans="1:52">
-      <c r="A17" s="11">
+      <c r="A17" s="24">
         <v>9</v>
       </c>
-      <c r="B17" s="12"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="9"/>
       <c r="J17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="17"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="7"/>
       <c r="W17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="6"/>
-      <c r="AI17" s="6"/>
-      <c r="AJ17" s="6"/>
-      <c r="AK17" s="6"/>
-      <c r="AL17" s="6"/>
-      <c r="AM17" s="7"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="9"/>
       <c r="AN17" s="5"/>
-      <c r="AO17" s="6"/>
-      <c r="AP17" s="6"/>
-      <c r="AQ17" s="6"/>
-      <c r="AR17" s="6"/>
-      <c r="AS17" s="6"/>
-      <c r="AT17" s="6"/>
-      <c r="AU17" s="6"/>
-      <c r="AV17" s="6"/>
-      <c r="AW17" s="6"/>
-      <c r="AX17" s="6"/>
-      <c r="AY17" s="6"/>
-      <c r="AZ17" s="7"/>
+      <c r="AO17" s="8"/>
+      <c r="AP17" s="8"/>
+      <c r="AQ17" s="8"/>
+      <c r="AR17" s="8"/>
+      <c r="AS17" s="8"/>
+      <c r="AT17" s="8"/>
+      <c r="AU17" s="8"/>
+      <c r="AV17" s="8"/>
+      <c r="AW17" s="8"/>
+      <c r="AX17" s="8"/>
+      <c r="AY17" s="8"/>
+      <c r="AZ17" s="9"/>
     </row>
     <row r="18" spans="1:52">
-      <c r="A18" s="11">
+      <c r="A18" s="24">
         <v>10</v>
       </c>
-      <c r="B18" s="12"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="17"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="7"/>
       <c r="W18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="6"/>
-      <c r="AK18" s="6"/>
-      <c r="AL18" s="6"/>
-      <c r="AM18" s="7"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="9"/>
       <c r="AN18" s="5"/>
-      <c r="AO18" s="6"/>
-      <c r="AP18" s="6"/>
-      <c r="AQ18" s="6"/>
-      <c r="AR18" s="6"/>
-      <c r="AS18" s="6"/>
-      <c r="AT18" s="6"/>
-      <c r="AU18" s="6"/>
-      <c r="AV18" s="6"/>
-      <c r="AW18" s="6"/>
-      <c r="AX18" s="6"/>
-      <c r="AY18" s="6"/>
-      <c r="AZ18" s="7"/>
+      <c r="AO18" s="8"/>
+      <c r="AP18" s="8"/>
+      <c r="AQ18" s="8"/>
+      <c r="AR18" s="8"/>
+      <c r="AS18" s="8"/>
+      <c r="AT18" s="8"/>
+      <c r="AU18" s="8"/>
+      <c r="AV18" s="8"/>
+      <c r="AW18" s="8"/>
+      <c r="AX18" s="8"/>
+      <c r="AY18" s="8"/>
+      <c r="AZ18" s="9"/>
     </row>
     <row r="19" spans="1:52">
-      <c r="A19" s="11">
+      <c r="A19" s="24">
         <v>11</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="9"/>
       <c r="J19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="17"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="7"/>
       <c r="W19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
-      <c r="AH19" s="6"/>
-      <c r="AI19" s="6"/>
-      <c r="AJ19" s="6"/>
-      <c r="AK19" s="6"/>
-      <c r="AL19" s="6"/>
-      <c r="AM19" s="7"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="9"/>
       <c r="AN19" s="5"/>
-      <c r="AO19" s="6"/>
-      <c r="AP19" s="6"/>
-      <c r="AQ19" s="6"/>
-      <c r="AR19" s="6"/>
-      <c r="AS19" s="6"/>
-      <c r="AT19" s="6"/>
-      <c r="AU19" s="6"/>
-      <c r="AV19" s="6"/>
-      <c r="AW19" s="6"/>
-      <c r="AX19" s="6"/>
-      <c r="AY19" s="6"/>
-      <c r="AZ19" s="7"/>
+      <c r="AO19" s="8"/>
+      <c r="AP19" s="8"/>
+      <c r="AQ19" s="8"/>
+      <c r="AR19" s="8"/>
+      <c r="AS19" s="8"/>
+      <c r="AT19" s="8"/>
+      <c r="AU19" s="8"/>
+      <c r="AV19" s="8"/>
+      <c r="AW19" s="8"/>
+      <c r="AX19" s="8"/>
+      <c r="AY19" s="8"/>
+      <c r="AZ19" s="9"/>
     </row>
     <row r="20" spans="1:52">
-      <c r="A20" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="A20" s="24">
+        <v>15</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="9"/>
-      <c r="AK20" s="9"/>
-      <c r="AL20" s="9"/>
+      <c r="J20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
       <c r="AM20" s="9"/>
-      <c r="AN20" s="9"/>
-      <c r="AO20" s="9"/>
-      <c r="AP20" s="9"/>
-      <c r="AQ20" s="9"/>
-      <c r="AR20" s="9"/>
-      <c r="AS20" s="9"/>
-      <c r="AT20" s="9"/>
-      <c r="AU20" s="9"/>
-      <c r="AV20" s="9"/>
-      <c r="AW20" s="9"/>
-      <c r="AX20" s="9"/>
-      <c r="AY20" s="9"/>
-      <c r="AZ20" s="10"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="8"/>
+      <c r="AP20" s="8"/>
+      <c r="AQ20" s="8"/>
+      <c r="AR20" s="8"/>
+      <c r="AS20" s="8"/>
+      <c r="AT20" s="8"/>
+      <c r="AU20" s="8"/>
+      <c r="AV20" s="8"/>
+      <c r="AW20" s="8"/>
+      <c r="AX20" s="8"/>
+      <c r="AY20" s="8"/>
+      <c r="AZ20" s="9"/>
     </row>
     <row r="21" spans="1:52">
-      <c r="A21" s="11">
-        <v>12</v>
-      </c>
-      <c r="B21" s="12"/>
+      <c r="A21" s="24">
+        <v>16</v>
+      </c>
+      <c r="B21" s="25"/>
       <c r="C21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
       <c r="J21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="19"/>
-      <c r="AD21" s="19"/>
-      <c r="AE21" s="19"/>
-      <c r="AF21" s="19"/>
-      <c r="AG21" s="19"/>
-      <c r="AH21" s="19"/>
-      <c r="AI21" s="19"/>
-      <c r="AJ21" s="19"/>
-      <c r="AK21" s="19"/>
-      <c r="AL21" s="19"/>
-      <c r="AM21" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="9"/>
       <c r="AN21" s="5"/>
-      <c r="AO21" s="6"/>
-      <c r="AP21" s="6"/>
-      <c r="AQ21" s="6"/>
-      <c r="AR21" s="6"/>
-      <c r="AS21" s="6"/>
-      <c r="AT21" s="6"/>
-      <c r="AU21" s="6"/>
-      <c r="AV21" s="6"/>
-      <c r="AW21" s="6"/>
-      <c r="AX21" s="6"/>
-      <c r="AY21" s="6"/>
-      <c r="AZ21" s="7"/>
+      <c r="AO21" s="8"/>
+      <c r="AP21" s="8"/>
+      <c r="AQ21" s="8"/>
+      <c r="AR21" s="8"/>
+      <c r="AS21" s="8"/>
+      <c r="AT21" s="8"/>
+      <c r="AU21" s="8"/>
+      <c r="AV21" s="8"/>
+      <c r="AW21" s="8"/>
+      <c r="AX21" s="8"/>
+      <c r="AY21" s="8"/>
+      <c r="AZ21" s="9"/>
     </row>
     <row r="22" spans="1:52">
-      <c r="A22" s="11">
-        <v>13</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="6"/>
-      <c r="AH22" s="6"/>
-      <c r="AI22" s="6"/>
-      <c r="AJ22" s="6"/>
-      <c r="AK22" s="6"/>
-      <c r="AL22" s="6"/>
-      <c r="AM22" s="7"/>
-      <c r="AN22" s="5"/>
-      <c r="AO22" s="6"/>
-      <c r="AP22" s="6"/>
-      <c r="AQ22" s="6"/>
-      <c r="AR22" s="6"/>
-      <c r="AS22" s="6"/>
-      <c r="AT22" s="6"/>
-      <c r="AU22" s="6"/>
-      <c r="AV22" s="6"/>
-      <c r="AW22" s="6"/>
-      <c r="AX22" s="6"/>
-      <c r="AY22" s="6"/>
-      <c r="AZ22" s="7"/>
+      <c r="A22" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="11"/>
+      <c r="AI22" s="11"/>
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="11"/>
+      <c r="AL22" s="11"/>
+      <c r="AM22" s="11"/>
+      <c r="AN22" s="11"/>
+      <c r="AO22" s="11"/>
+      <c r="AP22" s="11"/>
+      <c r="AQ22" s="11"/>
+      <c r="AR22" s="11"/>
+      <c r="AS22" s="11"/>
+      <c r="AT22" s="11"/>
+      <c r="AU22" s="11"/>
+      <c r="AV22" s="11"/>
+      <c r="AW22" s="11"/>
+      <c r="AX22" s="11"/>
+      <c r="AY22" s="11"/>
+      <c r="AZ22" s="12"/>
     </row>
     <row r="23" spans="1:52">
-      <c r="A23" s="11">
+      <c r="A23" s="24">
+        <v>12</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="46"/>
+      <c r="AA23" s="46"/>
+      <c r="AB23" s="46"/>
+      <c r="AC23" s="46"/>
+      <c r="AD23" s="46"/>
+      <c r="AE23" s="46"/>
+      <c r="AF23" s="46"/>
+      <c r="AG23" s="46"/>
+      <c r="AH23" s="46"/>
+      <c r="AI23" s="46"/>
+      <c r="AJ23" s="46"/>
+      <c r="AK23" s="46"/>
+      <c r="AL23" s="46"/>
+      <c r="AM23" s="47"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="8"/>
+      <c r="AP23" s="8"/>
+      <c r="AQ23" s="8"/>
+      <c r="AR23" s="8"/>
+      <c r="AS23" s="8"/>
+      <c r="AT23" s="8"/>
+      <c r="AU23" s="8"/>
+      <c r="AV23" s="8"/>
+      <c r="AW23" s="8"/>
+      <c r="AX23" s="8"/>
+      <c r="AY23" s="8"/>
+      <c r="AZ23" s="9"/>
+    </row>
+    <row r="24" spans="1:52">
+      <c r="A24" s="24">
+        <v>13</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="9"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="8"/>
+      <c r="AP24" s="8"/>
+      <c r="AQ24" s="8"/>
+      <c r="AR24" s="8"/>
+      <c r="AS24" s="8"/>
+      <c r="AT24" s="8"/>
+      <c r="AU24" s="8"/>
+      <c r="AV24" s="8"/>
+      <c r="AW24" s="8"/>
+      <c r="AX24" s="8"/>
+      <c r="AY24" s="8"/>
+      <c r="AZ24" s="9"/>
+    </row>
+    <row r="25" spans="1:52">
+      <c r="A25" s="24">
         <v>14</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="5" t="s">
+      <c r="B25" s="25"/>
+      <c r="C25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="19"/>
-      <c r="AD23" s="19"/>
-      <c r="AE23" s="19"/>
-      <c r="AF23" s="19"/>
-      <c r="AG23" s="19"/>
-      <c r="AH23" s="19"/>
-      <c r="AI23" s="19"/>
-      <c r="AJ23" s="19"/>
-      <c r="AK23" s="19"/>
-      <c r="AL23" s="19"/>
-      <c r="AM23" s="20"/>
-      <c r="AN23" s="5"/>
-      <c r="AO23" s="6"/>
-      <c r="AP23" s="6"/>
-      <c r="AQ23" s="6"/>
-      <c r="AR23" s="6"/>
-      <c r="AS23" s="6"/>
-      <c r="AT23" s="6"/>
-      <c r="AU23" s="6"/>
-      <c r="AV23" s="6"/>
-      <c r="AW23" s="6"/>
-      <c r="AX23" s="6"/>
-      <c r="AY23" s="6"/>
-      <c r="AZ23" s="7"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="46"/>
+      <c r="AA25" s="46"/>
+      <c r="AB25" s="46"/>
+      <c r="AC25" s="46"/>
+      <c r="AD25" s="46"/>
+      <c r="AE25" s="46"/>
+      <c r="AF25" s="46"/>
+      <c r="AG25" s="46"/>
+      <c r="AH25" s="46"/>
+      <c r="AI25" s="46"/>
+      <c r="AJ25" s="46"/>
+      <c r="AK25" s="46"/>
+      <c r="AL25" s="46"/>
+      <c r="AM25" s="47"/>
+      <c r="AN25" s="5"/>
+      <c r="AO25" s="8"/>
+      <c r="AP25" s="8"/>
+      <c r="AQ25" s="8"/>
+      <c r="AR25" s="8"/>
+      <c r="AS25" s="8"/>
+      <c r="AT25" s="8"/>
+      <c r="AU25" s="8"/>
+      <c r="AV25" s="8"/>
+      <c r="AW25" s="8"/>
+      <c r="AX25" s="8"/>
+      <c r="AY25" s="8"/>
+      <c r="AZ25" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="96">
-    <mergeCell ref="J13:V13"/>
-    <mergeCell ref="W13:AM13"/>
-    <mergeCell ref="AN13:AZ13"/>
-    <mergeCell ref="A20:AZ20"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="A10:AZ10"/>
-    <mergeCell ref="J8:V8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="AN7:AZ7"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="W7:AM7"/>
-    <mergeCell ref="W8:AM8"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="J7:V7"/>
-    <mergeCell ref="AN8:AZ8"/>
-    <mergeCell ref="AR2:AT2"/>
+  <mergeCells count="106">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="J21:V21"/>
+    <mergeCell ref="W21:AM21"/>
+    <mergeCell ref="AN21:AZ21"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="J18:V18"/>
+    <mergeCell ref="W18:AM18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="J20:V20"/>
+    <mergeCell ref="W20:AM20"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="W9:AM9"/>
+    <mergeCell ref="AN9:AZ9"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="J25:V25"/>
+    <mergeCell ref="AN25:AZ25"/>
     <mergeCell ref="W23:AM23"/>
-    <mergeCell ref="W19:AM19"/>
-    <mergeCell ref="AN19:AZ19"/>
-    <mergeCell ref="AN16:AZ16"/>
-    <mergeCell ref="W11:AM11"/>
-    <mergeCell ref="W12:AM12"/>
-    <mergeCell ref="W14:AM14"/>
-    <mergeCell ref="W16:AM16"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="J16:V16"/>
+    <mergeCell ref="J19:V19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="J24:V24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="J23:V23"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="J17:V17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="C11:I11"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="C14:I14"/>
@@ -2844,42 +3049,59 @@
     <mergeCell ref="J14:V14"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:I13"/>
-    <mergeCell ref="AN21:AZ21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="J16:V16"/>
-    <mergeCell ref="J19:V19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="J22:V22"/>
-    <mergeCell ref="W22:AM22"/>
-    <mergeCell ref="AN22:AZ22"/>
+    <mergeCell ref="W25:AM25"/>
+    <mergeCell ref="W19:AM19"/>
+    <mergeCell ref="AN19:AZ19"/>
+    <mergeCell ref="AN16:AZ16"/>
+    <mergeCell ref="W11:AM11"/>
+    <mergeCell ref="W12:AM12"/>
+    <mergeCell ref="W14:AM14"/>
+    <mergeCell ref="W16:AM16"/>
+    <mergeCell ref="AN23:AZ23"/>
+    <mergeCell ref="W24:AM24"/>
+    <mergeCell ref="AN24:AZ24"/>
     <mergeCell ref="AN18:AZ18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="J21:V21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="J23:V23"/>
-    <mergeCell ref="AN23:AZ23"/>
-    <mergeCell ref="W21:AM21"/>
-    <mergeCell ref="A6:AZ6"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="W9:AM9"/>
-    <mergeCell ref="AN9:AZ9"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="J17:V17"/>
     <mergeCell ref="W17:AM17"/>
     <mergeCell ref="AN17:AZ17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="J18:V18"/>
-    <mergeCell ref="W18:AM18"/>
+    <mergeCell ref="AN20:AZ20"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="J7:V7"/>
+    <mergeCell ref="AN8:AZ8"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="A6:AZ6"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="J13:V13"/>
+    <mergeCell ref="W13:AM13"/>
+    <mergeCell ref="AN13:AZ13"/>
+    <mergeCell ref="A22:AZ22"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="A10:AZ10"/>
+    <mergeCell ref="J8:V8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="AN7:AZ7"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="W7:AM7"/>
+    <mergeCell ref="W8:AM8"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
